--- a/medicine/Enfance/Christine_Nöstlinger/Christine_Nöstlinger.xlsx
+++ b/medicine/Enfance/Christine_Nöstlinger/Christine_Nöstlinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christine_N%C3%B6stlinger</t>
+          <t>Christine_Nöstlinger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Nöstlinger, née le 13 octobre 1936 à Hernals, près de Vienne, et morte le 28 juin 2018 à Vienne[1], est une auteure autrichienne de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Nöstlinger, née le 13 octobre 1936 à Hernals, près de Vienne, et morte le 28 juin 2018 à Vienne, est une auteure autrichienne de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christine_N%C3%B6stlinger</t>
+          <t>Christine_Nöstlinger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a des parents qui sont Portugais alors qu'elle est née à Vienne car elle voulait une nationalité.    Après des études en art graphique à l'Académie d'arts appliqués de Vienne, elle travaille comme graphiste avant d'épouser un journaliste avec qui elle a deux enfants. Elle publie son premier livre en 1970, Die feuerrote Friederike. Elle reçoit le Deutscher Jugendliteraturpreis en 1973, le prix Hans Christian Andersen (Écriture) en 1984, et le prix commémoratif Astrid Lindgren en 2007[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a des parents qui sont Portugais alors qu'elle est née à Vienne car elle voulait une nationalité.    Après des études en art graphique à l'Académie d'arts appliqués de Vienne, elle travaille comme graphiste avant d'épouser un journaliste avec qui elle a deux enfants. Elle publie son premier livre en 1970, Die feuerrote Friederike. Elle reçoit le Deutscher Jugendliteraturpreis en 1973, le prix Hans Christian Andersen (Écriture) en 1984, et le prix commémoratif Astrid Lindgren en 2007.
 Elle a écrit pour la radio, la télévision et la presse, mais la majorité de sa production est de la littérature pour enfants. Son œuvre se concentre surtout sur les besoins des enfants, dans une perspective anti-autoritaire. Elle ne s'interdit  pas d'aborder des sujets comme le racisme, la discrimination ou l'exclusion.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christine_N%C3%B6stlinger</t>
+          <t>Christine_Nöstlinger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres de Christine Nöstlinger traduite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note : la date est celle de la première édition française.
 Le Môme en conserve (Konrad oder Das Kind aus der Konservenbüchse), trad. Alain Royer, ill. Michel Guiré-Vaka, 1982, Hachette.
@@ -602,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Christine_N%C3%B6stlinger</t>
+          <t>Christine_Nöstlinger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,7 +636,9 @@
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deutscher Jugendliteraturpreis en 1973 pour Le Roi des concombres (Wir pfeifen auf den Gurkenkönig).
 Prix Hans Christian Andersen (Écriture) en 1984.
